--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/GABRIELA RUEDA.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/GABRIELA RUEDA.xlsx
@@ -19,9 +19,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>NR Finance Mexico</x:t>
+  </x:si>
+  <x:si>
     <x:t>CSYSO</x:t>
   </x:si>
   <x:si>
+    <x:t>Certificacion de usuarios 2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reporte de usuarios</x:t>
+  </x:si>
+  <x:si>
     <x:t>CECILIO AYALA RAMSES OSCA</x:t>
   </x:si>
   <x:si>
@@ -107,6 +116,9 @@
   </x:si>
   <x:si>
     <x:t>21/02/2024 12:00:00 a. m.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DECISION ENGINE</x:t>
   </x:si>
   <x:si>
     <x:t>DECISIONENG</x:t>
@@ -158,10 +170,18 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="16"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
@@ -175,7 +195,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -193,14 +213,45 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -504,63 +555,93 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="6.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="27.567768" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="16.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:9">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="D2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="B5" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
+      <x:c r="E5" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I5" s="0" t="s">
+      <x:c r="F5" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I6" s="2" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -582,39 +663,66 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="10.139196" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="D2" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B5" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="A6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -636,57 +744,86 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.424911" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="30.424911" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="19.139196" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="16.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="D2" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="B5" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="E5" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="F6" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -708,120 +845,149 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="13.424911" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.996339" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.139196" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="16.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:7">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="D2" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="B5" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="C5" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7">
-      <x:c r="A6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7">
-      <x:c r="A7" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7">
-      <x:c r="A8" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7">
-      <x:c r="A9" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="G9" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/GABRIELA RUEDA.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/GABRIELA RUEDA.xlsx
@@ -7,13 +7,13 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="CSYSO" sheetId="2" r:id="rId2"/>
-    <x:sheet name="EKIPINTER" sheetId="3" r:id="rId3"/>
+    <x:sheet name="EKIP" sheetId="3" r:id="rId3"/>
     <x:sheet name="PRODESK" sheetId="4" r:id="rId4"/>
     <x:sheet name="DECISION ENGINE" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CSYSO!$A$5:$L$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EKIPINTER!$A$5:$H$5</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EKIP!$A$5:$I$5</x:definedName>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PRODESK!$A$5:$K$5</x:definedName>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DECISION ENGINE'!$A$5:$J$5</x:definedName>
   </x:definedNames>
@@ -70,88 +70,121 @@
     <x:t>Comentarios</x:t>
   </x:si>
   <x:si>
+    <x:t>LARA MARTINEZ ILSE ABIGAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NRLMIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACTIVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gerente De Riesgo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X540436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GABRIELA RUEDA</x:t>
+  </x:si>
+  <x:si>
     <x:t>CECILIO AYALA RAMSES OSCA</x:t>
   </x:si>
   <x:si>
     <x:t>NRCAOS</x:t>
   </x:si>
   <x:si>
-    <x:t>ACTIVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gerente De Riesgo</x:t>
-  </x:si>
-  <x:si>
     <x:t>X694109</x:t>
   </x:si>
   <x:si>
-    <x:t>GABRIELA RUEDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LARA MARTINEZ ILSE ABIGAI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NRLMIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X540436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EKIPINTER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE RAUL  HERRERA ESPARZA</x:t>
+    <x:t>EKIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Usuario/Cuenta Red</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Perfil EKIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jorge Ricardo Lopez Casas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X137620</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contabilidad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cecilia Ayme Leyva Delfin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X196542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOEL ALBA PEREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X486333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Generico</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ILSE ABIGAIL LARA MARTINEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CECILIO AYALA OSCAR RAMSES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ricardo Lopez Cortes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X816619</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELSA GABRIELA RUEDA BALDERAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X824128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRODESK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fecha de Creacion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ultimo Acceso</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUAN MANUEL BALBUENA SIMAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X271065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GERENTE DE RIESGO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE RAUL HERRERA ESPARZA</x:t>
   </x:si>
   <x:si>
     <x:t>X524371</x:t>
   </x:si>
   <x:si>
-    <x:t>Clientes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OSCAR RAMSES CECILIO AYALA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cartera</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRODESK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fecha de Creacion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ultimo Acceso</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUAN MANUEL BALBUENA SIMAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X271065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GERENTE DE RIESGO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE RAUL HERRERA ESPARZA</x:t>
+    <x:t>ILSE LARA MARTINEZ</x:t>
   </x:si>
   <x:si>
     <x:t>DECISION ENGINE</x:t>
   </x:si>
   <x:si>
-    <x:t>Departamento</x:t>
-  </x:si>
-  <x:si>
     <x:t>DECISIONENG</x:t>
   </x:si>
   <x:si>
     <x:t>ElsaGabriela Rueda Balderas</x:t>
   </x:si>
   <x:si>
-    <x:t>Riesgos</x:t>
+    <x:t>elsagabriela.rueda balderas@nrfm.com.mx</x:t>
   </x:si>
   <x:si>
     <x:t>Inactivo</x:t>
@@ -160,19 +193,40 @@
     <x:t>Studio User</x:t>
   </x:si>
   <x:si>
+    <x:t>Módulos: Experian 1 (Origin)</x:t>
+  </x:si>
+  <x:si>
     <x:t>JorgeRicardo López Casas</x:t>
   </x:si>
   <x:si>
+    <x:t>jorgericardo.lópez casas@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Activo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Módulos: Experian 1 (Origin), API, STS(A): eeoa0069</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ilse Lara Martinez</x:t>
   </x:si>
   <x:si>
+    <x:t>ilse.lara martinez@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Módulos: Experian 1 (Origin), API, STS (A): edba6055</x:t>
+  </x:si>
+  <x:si>
     <x:t>José Herrera Esparza</x:t>
   </x:si>
   <x:si>
-    <x:t>Activo</x:t>
+    <x:t>jose.herreraesparza@nrfm.com.mx</x:t>
   </x:si>
   <x:si>
     <x:t>Juan Manuel Balbuena</x:t>
+  </x:si>
+  <x:si>
+    <x:t>juan.balbuenasiman@nrfm.com.mx</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -256,7 +310,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -272,8 +326,11 @@
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -291,6 +348,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -680,10 +741,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="4">
-        <x:v>45258</x:v>
-      </x:c>
-      <x:c r="G6" s="4">
-        <x:v>45337</x:v>
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="G6" s="5">
+        <x:v>45320.7200347222</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>19</x:v>
@@ -711,10 +772,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="4">
-        <x:v>43866</x:v>
-      </x:c>
-      <x:c r="G7" s="4">
-        <x:v>45351</x:v>
+        <x:v>45258</x:v>
+      </x:c>
+      <x:c r="G7" s="5">
+        <x:v>45288.4372916667</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>23</x:v>
@@ -740,42 +801,43 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G7"/>
+  <x:dimension ref="A1:H12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.139196" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.139196" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="6.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="30.567768" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.424911" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.139196" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="18.567768" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="14.853482" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="16.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="18.567768" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="14.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:8">
       <x:c r="D1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7">
+    <x:row r="2" spans="1:8">
       <x:c r="D2" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7">
+    <x:row r="3" spans="1:8">
       <x:c r="D3" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7">
+    <x:row r="4" spans="1:8">
       <x:c r="D4" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:7">
+    <x:row r="5" spans="1:8">
       <x:c r="A5" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -783,61 +845,180 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F5" s="2" t="s">
+      <x:c r="G5" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G5" s="2" t="s">
+      <x:c r="H5" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:7">
+    <x:row r="6" spans="1:8">
       <x:c r="A6" s="3" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F6" s="3"/>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E6" s="4">
+        <x:v>43779</x:v>
+      </x:c>
+      <x:c r="F6" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
       <x:c r="G6" s="3"/>
-    </x:row>
-    <x:row r="7" spans="1:7">
+      <x:c r="H6" s="3"/>
+    </x:row>
+    <x:row r="7" spans="1:8">
       <x:c r="A7" s="3" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="E7" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F7" s="3"/>
+      <x:c r="E7" s="4">
+        <x:v>43779</x:v>
+      </x:c>
+      <x:c r="F7" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
       <x:c r="G7" s="3"/>
+      <x:c r="H7" s="3"/>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E8" s="4">
+        <x:v>44848</x:v>
+      </x:c>
+      <x:c r="F8" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G8" s="3"/>
+      <x:c r="H8" s="3"/>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E9" s="4">
+        <x:v>43901</x:v>
+      </x:c>
+      <x:c r="F9" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G9" s="3"/>
+      <x:c r="H9" s="3"/>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D10" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E10" s="4">
+        <x:v>44489</x:v>
+      </x:c>
+      <x:c r="F10" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G10" s="3"/>
+      <x:c r="H10" s="3"/>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B11" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D11" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E11" s="4">
+        <x:v>43779</x:v>
+      </x:c>
+      <x:c r="F11" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G11" s="3"/>
+      <x:c r="H11" s="3"/>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D12" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E12" s="4">
+        <x:v>44726</x:v>
+      </x:c>
+      <x:c r="F12" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G12" s="3"/>
+      <x:c r="H12" s="3"/>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A5:H5"/>
+  <x:autoFilter ref="A5:I5"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -851,7 +1032,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J7"/>
+  <x:dimension ref="A1:J8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -876,7 +1057,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -906,10 +1087,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
         <x:v>12</x:v>
@@ -923,25 +1104,25 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>45126</x:v>
       </x:c>
       <x:c r="G6" s="4">
-        <x:v>45355</x:v>
+        <x:v>45330</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>20</x:v>
@@ -951,31 +1132,59 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F7" s="4">
         <x:v>45119</x:v>
       </x:c>
       <x:c r="G7" s="4">
-        <x:v>45343</x:v>
+        <x:v>45327</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I7" s="3"/>
       <x:c r="J7" s="3"/>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F8" s="4">
+        <x:v>45106</x:v>
+      </x:c>
+      <x:c r="G8" s="4">
+        <x:v>45287</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="3"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:K5"/>
@@ -1000,13 +1209,13 @@
   <x:cols>
     <x:col min="1" max="1" width="13.424911" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="25.996339" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.424911" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="39.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="11.139196" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="19.282054" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="16.139196" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="18.567768" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="14.853482" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="47.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">
@@ -1016,7 +1225,7 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="D2" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -1037,7 +1246,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
         <x:v>7</x:v>
@@ -1046,7 +1255,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
         <x:v>12</x:v>
@@ -1060,19 +1269,19 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>44430</x:v>
@@ -1081,23 +1290,25 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H6" s="3"/>
-      <x:c r="I6" s="3"/>
+      <x:c r="I6" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F7" s="4">
         <x:v>44432</x:v>
@@ -1106,23 +1317,25 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H7" s="3"/>
-      <x:c r="I7" s="3"/>
+      <x:c r="I7" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F8" s="4">
         <x:v>44435</x:v>
@@ -1131,23 +1344,25 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H8" s="3"/>
-      <x:c r="I8" s="3"/>
+      <x:c r="I8" s="3" t="s">
+        <x:v>63</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F9" s="4">
         <x:v>45257</x:v>
@@ -1156,23 +1371,25 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H9" s="3"/>
-      <x:c r="I9" s="3"/>
+      <x:c r="I9" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F10" s="4">
         <x:v>45258</x:v>
@@ -1181,7 +1398,9 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H10" s="3"/>
-      <x:c r="I10" s="3"/>
+      <x:c r="I10" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:J5"/>
